--- a/src/test/resources/credentialsTestData.xlsx
+++ b/src/test/resources/credentialsTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -52,12 +52,15 @@
   </si>
   <si>
     <t>invitation</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -448,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,7 +465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -476,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -488,6 +491,9 @@
       </c>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,7 +525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
